--- a/biology/Botanique/Morchella_elata/Morchella_elata.xlsx
+++ b/biology/Botanique/Morchella_elata/Morchella_elata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morille élevée
 Morchella elata, la morille élevée, est une espèce de champignons comestibles, du genre Morchella de la famille des Morchellaceae dans l'ordre des Pezizales.
@@ -514,12 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial
-Morchella elata Fr.. 1822
-Synonymes
-Boletus esculentus P. Micheli 1729 (synonyme)
-Taxon infraspécifique
-Morchella elata var. purpurascens (ex Krombh. Boud.) Kreisel 1984</t>
+          <t>Nom binomial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morchella elata Fr.. 1822
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +558,84 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletus esculentus P. Micheli 1729 (synonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Morchella_elata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_elata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxon infraspécifique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Morchella elata var. purpurascens (ex Krombh. Boud.) Kreisel 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Morchella_elata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_elata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du Sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hyménophore
 Chapeau conique de 25 à 30 mm de haut, mince, très allongé, aux alvéoles profonds, étroits et allongés ;
@@ -559,69 +647,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Morchella_elata</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Morchella_elata</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Saison</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'avril à mai en montagne, plus rare en plaine.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Morchella_elata</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Morchella_elata</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 400 et 1 500 m d'altitude, sous frênes, ormes et en mélange avec épicéas communs ou pins sylvestres peu dense, en bordures de rivières, sous ronciers et places à charbon.
-En plaine anciens parcs, vergers et ruines anciennes, lumineux, sous frênes, érables sycomores et trembles, coulées de gibiers, herbes sèches[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -643,10 +668,79 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'avril à mai en montagne, plus rare en plaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Morchella_elata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_elata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 400 et 1 500 m d'altitude, sous frênes, ormes et en mélange avec épicéas communs ou pins sylvestres peu dense, en bordures de rivières, sous ronciers et places à charbon.
+En plaine anciens parcs, vergers et ruines anciennes, lumineux, sous frênes, érables sycomores et trembles, coulées de gibiers, herbes sèches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Morchella_elata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morchella_elata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible.
 </t>
